--- a/COMPARTIR/GUIAS RECIBIDAS.xlsx
+++ b/COMPARTIR/GUIAS RECIBIDAS.xlsx
@@ -1,22 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\COMPARTIR\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C84821-0462-4BC1-B613-6014955EE134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="CONDUCTIRES" sheetId="2" r:id="rId2"/>
     <sheet name="VEHICULOS" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="63">
   <si>
     <t>FECHA</t>
   </si>
@@ -181,13 +196,37 @@
   </si>
   <si>
     <t>ELIZABETH SANDOVAL</t>
+  </si>
+  <si>
+    <t>ypbell</t>
+  </si>
+  <si>
+    <t>pyca</t>
+  </si>
+  <si>
+    <t>tia</t>
+  </si>
+  <si>
+    <t>MARCELO ABRIL</t>
+  </si>
+  <si>
+    <t>NO TRANSPORTE 29636</t>
+  </si>
+  <si>
+    <t>YUPI</t>
+  </si>
+  <si>
+    <t>ANTHONY PORRAS</t>
+  </si>
+  <si>
+    <t>MILTON ABRIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +247,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aharoni"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -242,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -251,6 +297,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -260,6 +311,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -277,7 +331,13 @@
     <xdr:ext cx="4652596" cy="608135"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="1 Rectángulo"/>
+        <xdr:cNvPr id="2" name="1 Rectángulo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -375,7 +435,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -408,9 +468,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -443,6 +520,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -618,12 +712,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6:D6"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,6 +868,147 @@
         <v>8028947721</v>
       </c>
     </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>45189</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7">
+        <v>92269</v>
+      </c>
+      <c r="H7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>45189</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>45189</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>45189</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>45189</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="4">
+        <v>8028955411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>45189</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="6">
+        <v>8028955402</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -781,7 +1016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -836,7 +1071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">

--- a/COMPARTIR/GUIAS RECIBIDAS.xlsx
+++ b/COMPARTIR/GUIAS RECIBIDAS.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\COMPARTIR\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C84821-0462-4BC1-B613-6014955EE134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="CONDUCTIRES" sheetId="2" r:id="rId2"/>
     <sheet name="VEHICULOS" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="88">
   <si>
     <t>FECHA</t>
   </si>
@@ -220,13 +214,88 @@
   </si>
   <si>
     <t>MILTON ABRIL</t>
+  </si>
+  <si>
+    <t>OTROS CLIEN</t>
+  </si>
+  <si>
+    <t>FLEXTRANS</t>
+  </si>
+  <si>
+    <t>UIO</t>
+  </si>
+  <si>
+    <t>WILLIAM PEREZ</t>
+  </si>
+  <si>
+    <t>PEDRO LOPEZ</t>
+  </si>
+  <si>
+    <t>ABA6950</t>
+  </si>
+  <si>
+    <t>INPAECSA</t>
+  </si>
+  <si>
+    <t>BBH</t>
+  </si>
+  <si>
+    <t>AMBATO</t>
+  </si>
+  <si>
+    <t>PAUL GRANJA</t>
+  </si>
+  <si>
+    <t>TIA</t>
+  </si>
+  <si>
+    <t>UNIVIAST</t>
+  </si>
+  <si>
+    <t>YOBELL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORDOVILLA </t>
+  </si>
+  <si>
+    <t>NIRSA</t>
+  </si>
+  <si>
+    <t>LOGEX</t>
+  </si>
+  <si>
+    <t>JABONRIA</t>
+  </si>
+  <si>
+    <t>SIEMPRELISTOS</t>
+  </si>
+  <si>
+    <t>CONTENEDOR</t>
+  </si>
+  <si>
+    <t>JAIME ABRIL</t>
+  </si>
+  <si>
+    <t>SMLU7942141</t>
+  </si>
+  <si>
+    <t>PZQ3669</t>
+  </si>
+  <si>
+    <t>Yupi</t>
+  </si>
+  <si>
+    <t>QUITO</t>
+  </si>
+  <si>
+    <t>NO SE LLEVA REGISTRO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,8 +324,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,11 +350,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -288,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -298,10 +388,19 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -334,7 +433,7 @@
         <xdr:cNvPr id="2" name="1 Rectángulo">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -435,7 +534,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -468,26 +567,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -520,23 +602,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -712,17 +777,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" customWidth="1"/>
     <col min="8" max="8" width="33" customWidth="1"/>
   </cols>
@@ -754,260 +820,593 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="6">
         <v>45188</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="7">
         <v>30335643</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="6">
         <v>45186</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="7">
         <v>8338</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="6">
         <v>45188</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="7">
         <v>8355</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="6">
         <v>45188</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="7">
         <v>8028947718</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="6">
         <v>45188</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="7">
         <v>8028947721</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="6">
         <v>45189</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="7">
         <v>92269</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="6">
         <v>45189</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="7">
         <v>1033</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="6">
         <v>45189</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="7">
         <v>1034</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="6">
         <v>45189</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="7">
         <v>1035</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="6">
         <v>45189</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="8">
         <v>8028955411</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="6">
         <v>45189</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="10">
         <v>8028955402</v>
       </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>45190</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="8">
+        <v>130101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>45190</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="8">
+        <v>129943</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>45190</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="8">
+        <v>130101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>45191</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="8">
+        <v>8028965489</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>45190</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="11">
+        <v>30335795</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>45191</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="11">
+        <v>30335864</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>45191</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="11">
+        <v>30335864</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>45192</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="11">
+        <v>3821</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>45188</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="11">
+        <v>8360</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>45188</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="11">
+        <v>8372</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>45190</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="11">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>45190</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="11">
+        <v>26413</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>45189</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>45189</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" s="8">
+        <v>14554</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1016,7 +1415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -1071,7 +1470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">

--- a/COMPARTIR/GUIAS RECIBIDAS.xlsx
+++ b/COMPARTIR/GUIAS RECIBIDAS.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="93">
   <si>
     <t>FECHA</t>
   </si>
@@ -289,6 +289,21 @@
   </si>
   <si>
     <t>NO SE LLEVA REGISTRO</t>
+  </si>
+  <si>
+    <t>yupi</t>
+  </si>
+  <si>
+    <t>NURY CARRO</t>
+  </si>
+  <si>
+    <t>GBP5423</t>
+  </si>
+  <si>
+    <t>STO DGO</t>
+  </si>
+  <si>
+    <t>ALFREDO SANDOVAL</t>
   </si>
 </sst>
 </file>
@@ -378,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -401,6 +416,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,7 +449,7 @@
         <xdr:cNvPr id="2" name="1 Rectángulo">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -778,11 +794,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1401,12 +1417,50 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="A27" s="3">
+        <v>45189</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" s="4">
+        <v>22279</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>45190</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="14">
+        <v>8382</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/COMPARTIR/GUIAS RECIBIDAS.xlsx
+++ b/COMPARTIR/GUIAS RECIBIDAS.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="93">
   <si>
     <t>FECHA</t>
   </si>
@@ -449,7 +449,7 @@
         <xdr:cNvPr id="2" name="1 Rectángulo">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -794,11 +794,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1151,10 +1151,10 @@
         <v>65</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="G15" s="8">
         <v>130101</v>
@@ -1162,71 +1162,71 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>45191</v>
+        <v>45190</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="G16" s="8">
-        <v>8028965489</v>
+        <v>130101</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>45190</v>
+        <v>45191</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="11">
-        <v>30335795</v>
+        <v>17</v>
+      </c>
+      <c r="G17" s="8">
+        <v>8028965489</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>45191</v>
-      </c>
-      <c r="B18" s="8" t="s">
+        <v>45190</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>58</v>
+      <c r="D18" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G18" s="11">
-        <v>30335864</v>
+        <v>30335795</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1243,10 +1243,10 @@
         <v>73</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G19" s="11">
         <v>30335864</v>
@@ -1254,39 +1254,39 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>45192</v>
+        <v>45191</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>45</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>21</v>
       </c>
       <c r="G20" s="11">
-        <v>3821</v>
+        <v>30335864</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
-        <v>45188</v>
+        <v>45192</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>45</v>
@@ -1295,7 +1295,7 @@
         <v>21</v>
       </c>
       <c r="G21" s="11">
-        <v>8360</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1318,21 +1318,21 @@
         <v>21</v>
       </c>
       <c r="G22" s="11">
-        <v>8372</v>
+        <v>8360</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <v>45190</v>
+        <v>45188</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>45</v>
@@ -1341,7 +1341,7 @@
         <v>21</v>
       </c>
       <c r="G23" s="11">
-        <v>963</v>
+        <v>8372</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1349,116 +1349,139 @@
         <v>45190</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E24" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="11">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>45190</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F25" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G25" s="11">
         <v>26413</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>45189</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E26" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F26" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G26" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H26" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
         <v>45189</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B27" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G26" s="8">
-        <v>14554</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>45189</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>88</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G27" s="4">
-        <v>22279</v>
+        <v>84</v>
+      </c>
+      <c r="G27" s="8">
+        <v>14554</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
+        <v>45189</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" s="4">
+        <v>22279</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>45190</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B29" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F29" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G29" s="14">
         <v>8382</v>
       </c>
     </row>

--- a/COMPARTIR/GUIAS RECIBIDAS.xlsx
+++ b/COMPARTIR/GUIAS RECIBIDAS.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="93">
   <si>
     <t>FECHA</t>
   </si>
@@ -393,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -416,7 +416,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -794,11 +793,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1463,26 +1462,49 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="A29" s="6">
         <v>45190</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G29" s="7">
         <v>8382</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>45202</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30">
+        <v>8489</v>
       </c>
     </row>
   </sheetData>
